--- a/lib_testcase/com.aislend.CloseBrowser.xlsx
+++ b/lib_testcase/com.aislend.CloseBrowser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Project Name: Aislend(CityMarket)</t>
+  </si>
+  <si>
+    <t>CloseBrowser: All</t>
   </si>
 </sst>
 </file>
@@ -873,7 +876,7 @@
         <v>30</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>39</v>

--- a/lib_testcase/com.aislend.CloseBrowser.xlsx
+++ b/lib_testcase/com.aislend.CloseBrowser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.CloseBrowser.xlsx
+++ b/lib_testcase/com.aislend.CloseBrowser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.CloseBrowser.xlsx
+++ b/lib_testcase/com.aislend.CloseBrowser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.CloseBrowser.xlsx
+++ b/lib_testcase/com.aislend.CloseBrowser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.CloseBrowser.xlsx
+++ b/lib_testcase/com.aislend.CloseBrowser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.CloseBrowser.xlsx
+++ b/lib_testcase/com.aislend.CloseBrowser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.CloseBrowser.xlsx
+++ b/lib_testcase/com.aislend.CloseBrowser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.CloseBrowser.xlsx
+++ b/lib_testcase/com.aislend.CloseBrowser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.CloseBrowser.xlsx
+++ b/lib_testcase/com.aislend.CloseBrowser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.CloseBrowser.xlsx
+++ b/lib_testcase/com.aislend.CloseBrowser.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
   <si>
     <t>Action</t>
   </si>
